--- a/data/pca/factorExposure/factorExposure_2013-01-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.000828726366296789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00184046413862964</v>
+      </c>
+      <c r="C2">
+        <v>-0.03129360669525911</v>
+      </c>
+      <c r="D2">
+        <v>0.006722756211471686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003064697450096281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006414339033757849</v>
+      </c>
+      <c r="C4">
+        <v>-0.08461816800636594</v>
+      </c>
+      <c r="D4">
+        <v>0.07939201885431518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003782224350954244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01430136723810041</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131473883698148</v>
+      </c>
+      <c r="D6">
+        <v>0.03283044240548409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002090423504003081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005091020224375576</v>
+      </c>
+      <c r="C7">
+        <v>-0.05776718154113429</v>
+      </c>
+      <c r="D7">
+        <v>0.03169828879875581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006562055361141357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005868986847325782</v>
+      </c>
+      <c r="C8">
+        <v>-0.03857945113616606</v>
+      </c>
+      <c r="D8">
+        <v>0.0424027315111784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003213386329600846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004545979862474359</v>
+      </c>
+      <c r="C9">
+        <v>-0.07044830366304314</v>
+      </c>
+      <c r="D9">
+        <v>0.07212691021225635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002225716483510412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005409406689456937</v>
+      </c>
+      <c r="C10">
+        <v>-0.05851518499670145</v>
+      </c>
+      <c r="D10">
+        <v>-0.195891031465194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002698061072974955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005799771342620898</v>
+      </c>
+      <c r="C11">
+        <v>-0.0795185091602551</v>
+      </c>
+      <c r="D11">
+        <v>0.06103721439533333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004522288261239837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004150850274749761</v>
+      </c>
+      <c r="C12">
+        <v>-0.06381473830585364</v>
+      </c>
+      <c r="D12">
+        <v>0.04758425415508399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002024778901519279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009018298900706934</v>
+      </c>
+      <c r="C13">
+        <v>-0.06845551015770815</v>
+      </c>
+      <c r="D13">
+        <v>0.05709600741980529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009728998132788751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001636340989669409</v>
+      </c>
+      <c r="C14">
+        <v>-0.04520401233514484</v>
+      </c>
+      <c r="D14">
+        <v>0.009000360057676002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006568273956490761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006063434680315462</v>
+      </c>
+      <c r="C15">
+        <v>-0.0416861201198625</v>
+      </c>
+      <c r="D15">
+        <v>0.02822003439314972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008935686319972686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005129905331795723</v>
+      </c>
+      <c r="C16">
+        <v>-0.0649549488510253</v>
+      </c>
+      <c r="D16">
+        <v>0.04875002152818537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002331361116248301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009055582185384776</v>
+      </c>
+      <c r="C20">
+        <v>-0.06568885574116684</v>
+      </c>
+      <c r="D20">
+        <v>0.04162572726320787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005723317096230699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01006396296991999</v>
+      </c>
+      <c r="C21">
+        <v>-0.02142326575853261</v>
+      </c>
+      <c r="D21">
+        <v>0.0363880176624089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01682709397604241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006577903301776822</v>
+      </c>
+      <c r="C22">
+        <v>-0.09410301225242405</v>
+      </c>
+      <c r="D22">
+        <v>0.1147713992442755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01712856274457071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00639408220036433</v>
+      </c>
+      <c r="C23">
+        <v>-0.0949165391631344</v>
+      </c>
+      <c r="D23">
+        <v>0.1148050588000762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001303948671190307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005560288532853666</v>
+      </c>
+      <c r="C24">
+        <v>-0.07619169086490929</v>
+      </c>
+      <c r="D24">
+        <v>0.06239787106507487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003872789204028378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003120173663035408</v>
+      </c>
+      <c r="C25">
+        <v>-0.07834080516682179</v>
+      </c>
+      <c r="D25">
+        <v>0.06743350536069351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00483423128695897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003669947771438381</v>
+      </c>
+      <c r="C26">
+        <v>-0.04080069322035525</v>
+      </c>
+      <c r="D26">
+        <v>0.02176036319279331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005427479231296306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007340063147124981</v>
+      </c>
+      <c r="C28">
+        <v>-0.108445622145404</v>
+      </c>
+      <c r="D28">
+        <v>-0.3167194329338496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001110625487720431</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003321136905710173</v>
+      </c>
+      <c r="C29">
+        <v>-0.04990117747800217</v>
+      </c>
+      <c r="D29">
+        <v>0.006617908082844623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003503633384061568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.0096774632439178</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427246618971371</v>
+      </c>
+      <c r="D30">
+        <v>0.09705158373851226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001195104676679426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006326569076596338</v>
+      </c>
+      <c r="C31">
+        <v>-0.04451425903365094</v>
+      </c>
+      <c r="D31">
+        <v>0.03123353278495238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005892323307764627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004245113070449174</v>
+      </c>
+      <c r="C32">
+        <v>-0.04122587491583827</v>
+      </c>
+      <c r="D32">
+        <v>0.02060333020286128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002767175018552777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008547536928216377</v>
+      </c>
+      <c r="C33">
+        <v>-0.08588229796287776</v>
+      </c>
+      <c r="D33">
+        <v>0.06669303055811836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004317743222939418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004025129507992567</v>
+      </c>
+      <c r="C34">
+        <v>-0.057823571763093</v>
+      </c>
+      <c r="D34">
+        <v>0.05334339353292135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001448633353791867</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005077281205764955</v>
+      </c>
+      <c r="C35">
+        <v>-0.04063935474862751</v>
+      </c>
+      <c r="D35">
+        <v>0.01585806314501077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003647670761751504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00106633521775231</v>
+      </c>
+      <c r="C36">
+        <v>-0.02483172544895897</v>
+      </c>
+      <c r="D36">
+        <v>0.02179349579291537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002397012155125596</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009559770078553973</v>
+      </c>
+      <c r="C38">
+        <v>-0.0352247858475938</v>
+      </c>
+      <c r="D38">
+        <v>0.01529969148567894</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01186084260967009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0004077718177813806</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156247981831155</v>
+      </c>
+      <c r="D39">
+        <v>0.07376123466863442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01007417411865649</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00282195571498608</v>
+      </c>
+      <c r="C40">
+        <v>-0.09112660867060168</v>
+      </c>
+      <c r="D40">
+        <v>0.009345032260889714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001383643183121346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00728916352168948</v>
+      </c>
+      <c r="C41">
+        <v>-0.03792020086716173</v>
+      </c>
+      <c r="D41">
+        <v>0.03631574757840437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002898892430238526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004126091251772218</v>
+      </c>
+      <c r="C43">
+        <v>-0.05357726993059666</v>
+      </c>
+      <c r="D43">
+        <v>0.02471313726591078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004180334693585403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003518822903253403</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091034746337764</v>
+      </c>
+      <c r="D44">
+        <v>0.06828931334556157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001102120481890463</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002245846234049223</v>
+      </c>
+      <c r="C46">
+        <v>-0.03301348306113569</v>
+      </c>
+      <c r="D46">
+        <v>0.03256825542629833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>5.961409331536629e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002783130361610348</v>
+      </c>
+      <c r="C47">
+        <v>-0.03745917289311839</v>
+      </c>
+      <c r="D47">
+        <v>0.02214986330145195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003658253169370281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006722630780533949</v>
+      </c>
+      <c r="C48">
+        <v>-0.03104422209248119</v>
+      </c>
+      <c r="D48">
+        <v>0.031641991438802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01202187384266367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0155333137386781</v>
+      </c>
+      <c r="C49">
+        <v>-0.183617326066977</v>
+      </c>
+      <c r="D49">
+        <v>0.0138270360534336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001629077055337332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003713043201649465</v>
+      </c>
+      <c r="C50">
+        <v>-0.04359656880012471</v>
+      </c>
+      <c r="D50">
+        <v>0.03532894045797682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008756289228182756</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004477293416503579</v>
+      </c>
+      <c r="C51">
+        <v>-0.02612354156355522</v>
+      </c>
+      <c r="D51">
+        <v>0.01963739048953981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007583009817921778</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02118958158363413</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696925346196376</v>
+      </c>
+      <c r="D53">
+        <v>0.02664061029625952</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001154608157699926</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008833015631298749</v>
+      </c>
+      <c r="C54">
+        <v>-0.05422623683558978</v>
+      </c>
+      <c r="D54">
+        <v>0.04446494441895417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003834321092205014</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009682492679981395</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082415987943085</v>
+      </c>
+      <c r="D55">
+        <v>0.0396464682113427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0026597059367681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0203499193701391</v>
+      </c>
+      <c r="C56">
+        <v>-0.1740540080169183</v>
+      </c>
+      <c r="D56">
+        <v>0.02609855388571465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006962252753201178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01987486358352117</v>
+      </c>
+      <c r="C58">
+        <v>-0.1121917895350961</v>
+      </c>
+      <c r="D58">
+        <v>0.04942612429127018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006822971947396048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01001794482419236</v>
+      </c>
+      <c r="C59">
+        <v>-0.1651483305156328</v>
+      </c>
+      <c r="D59">
+        <v>-0.3201676378267475</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003898732846820857</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02433225079195355</v>
+      </c>
+      <c r="C60">
+        <v>-0.2218909202686019</v>
+      </c>
+      <c r="D60">
+        <v>0.03641046348858103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01357471440135037</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001595422907942137</v>
+      </c>
+      <c r="C61">
+        <v>-0.09505167034555395</v>
+      </c>
+      <c r="D61">
+        <v>0.05673367089086762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1636932998016916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1450328042286718</v>
+      </c>
+      <c r="C62">
+        <v>-0.09188567882400983</v>
+      </c>
+      <c r="D62">
+        <v>0.04415465758642732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008146576674829916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006387736518437645</v>
+      </c>
+      <c r="C63">
+        <v>-0.05494334971683276</v>
+      </c>
+      <c r="D63">
+        <v>0.02658850889848394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0006057305509590992</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01548226639399763</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051044003001866</v>
+      </c>
+      <c r="D64">
+        <v>0.05990884488984675</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002944384346138151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01819142996905243</v>
+      </c>
+      <c r="C65">
+        <v>-0.1238611158668126</v>
+      </c>
+      <c r="D65">
+        <v>0.01924473116731777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007640435881493855</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01330312084139826</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596164325731269</v>
+      </c>
+      <c r="D66">
+        <v>0.113612752871603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00364385546397475</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01576127425513251</v>
+      </c>
+      <c r="C67">
+        <v>-0.06581091652629079</v>
+      </c>
+      <c r="D67">
+        <v>0.02737765680408643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006311115794815267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0007874099998818625</v>
+      </c>
+      <c r="C68">
+        <v>-0.08783176591772236</v>
+      </c>
+      <c r="D68">
+        <v>-0.258766661468719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002305573511521039</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006252554573461613</v>
+      </c>
+      <c r="C69">
+        <v>-0.05001042783345067</v>
+      </c>
+      <c r="D69">
+        <v>0.03993432198874832</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003066001384131367</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001853224680519452</v>
+      </c>
+      <c r="C70">
+        <v>-0.002610983729192314</v>
+      </c>
+      <c r="D70">
+        <v>0.002455611821006807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001990114713150012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005985773631267542</v>
+      </c>
+      <c r="C71">
+        <v>-0.09690051062789526</v>
+      </c>
+      <c r="D71">
+        <v>-0.3067667373499967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003992893759768147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01635066833894332</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529754352486034</v>
+      </c>
+      <c r="D72">
+        <v>0.02086135930243833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0117643959720723</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0312287893614554</v>
+      </c>
+      <c r="C73">
+        <v>-0.2800506883596652</v>
+      </c>
+      <c r="D73">
+        <v>0.05542170097837985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004676475298870352</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002147336551887061</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047296481080369</v>
+      </c>
+      <c r="D74">
+        <v>0.03660126286112469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002473163814362584</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01114209781372362</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244723906044674</v>
+      </c>
+      <c r="D75">
+        <v>0.02409899869487404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009127280785876043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02206849814330004</v>
+      </c>
+      <c r="C76">
+        <v>-0.149171561769649</v>
+      </c>
+      <c r="D76">
+        <v>0.05989655589579634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001826550615288239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0236535356375645</v>
+      </c>
+      <c r="C77">
+        <v>-0.1228299664661123</v>
+      </c>
+      <c r="D77">
+        <v>0.08584990553121534</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002247984553298952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01491688571451621</v>
+      </c>
+      <c r="C78">
+        <v>-0.09598817361903905</v>
+      </c>
+      <c r="D78">
+        <v>0.07066076647487814</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0229514018278304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03794610069052296</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561347240723807</v>
+      </c>
+      <c r="D79">
+        <v>0.03351440043217268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00667325222344956</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01046059856153669</v>
+      </c>
+      <c r="C80">
+        <v>-0.03991001692712252</v>
+      </c>
+      <c r="D80">
+        <v>0.02850206861627401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001130862194911007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01549535459941558</v>
+      </c>
+      <c r="C81">
+        <v>-0.1267521809575479</v>
+      </c>
+      <c r="D81">
+        <v>0.03874313360278975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.00594847744534688</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0200494984256411</v>
+      </c>
+      <c r="C82">
+        <v>-0.1412237396690399</v>
+      </c>
+      <c r="D82">
+        <v>0.03813273558832696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008589885169784442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01010862314057529</v>
+      </c>
+      <c r="C83">
+        <v>-0.05639523299657743</v>
+      </c>
+      <c r="D83">
+        <v>0.05411301565128557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01298378373752442</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01173723155867413</v>
+      </c>
+      <c r="C84">
+        <v>-0.03721836365248367</v>
+      </c>
+      <c r="D84">
+        <v>-0.009877369775781325</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01398289909165279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02840919304596523</v>
+      </c>
+      <c r="C85">
+        <v>-0.1235489655959342</v>
+      </c>
+      <c r="D85">
+        <v>0.04498966243173451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001781886083394578</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005999741307759959</v>
+      </c>
+      <c r="C86">
+        <v>-0.05013033994823803</v>
+      </c>
+      <c r="D86">
+        <v>0.02756305710374338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004394566258143792</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01032762956803638</v>
+      </c>
+      <c r="C87">
+        <v>-0.1293248640982381</v>
+      </c>
+      <c r="D87">
+        <v>0.07437100117764424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01177851005558663</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002827169561936804</v>
+      </c>
+      <c r="C88">
+        <v>-0.06538735317855712</v>
+      </c>
+      <c r="D88">
+        <v>0.01768348876862047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0138526172147734</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001057150996349097</v>
+      </c>
+      <c r="C89">
+        <v>-0.1487725704301539</v>
+      </c>
+      <c r="D89">
+        <v>-0.3397240263712283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002272573232975459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007250056266387471</v>
+      </c>
+      <c r="C90">
+        <v>-0.1227257845007136</v>
+      </c>
+      <c r="D90">
+        <v>-0.3186412767662228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005621128366134157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01058844514420892</v>
+      </c>
+      <c r="C91">
+        <v>-0.1010817460465604</v>
+      </c>
+      <c r="D91">
+        <v>0.02035112493860473</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007710177751607226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001131973792615469</v>
+      </c>
+      <c r="C92">
+        <v>-0.1357427540101126</v>
+      </c>
+      <c r="D92">
+        <v>-0.3261753673582617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001153946574226816</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005121668125139845</v>
+      </c>
+      <c r="C93">
+        <v>-0.1065037424762703</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011525079777005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00330020953341471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0226888381163992</v>
+      </c>
+      <c r="C94">
+        <v>-0.1456979720705809</v>
+      </c>
+      <c r="D94">
+        <v>0.05479674680410697</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004781936164908705</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01665638538759943</v>
+      </c>
+      <c r="C95">
+        <v>-0.1261734492783374</v>
+      </c>
+      <c r="D95">
+        <v>0.0565560077926049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>5.570666709718591e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03652548234012333</v>
+      </c>
+      <c r="C97">
+        <v>-0.212424545477288</v>
+      </c>
+      <c r="D97">
+        <v>-0.009030000136322072</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002929423213554921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03685417859405384</v>
+      </c>
+      <c r="C98">
+        <v>-0.2473538570279235</v>
+      </c>
+      <c r="D98">
+        <v>0.05127010273379822</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.98477226310848</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9820044508598599</v>
+      </c>
+      <c r="C99">
+        <v>0.117831727801881</v>
+      </c>
+      <c r="D99">
+        <v>-0.02730615082476763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001008596560157683</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.0033586298388503</v>
+      </c>
+      <c r="C101">
+        <v>-0.05007369179864635</v>
+      </c>
+      <c r="D101">
+        <v>0.006761587052371201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
